--- a/Processes/SA_OverseasHealthCareUpdate/Data/Config.xlsx
+++ b/Processes/SA_OverseasHealthCareUpdate/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\UQ OSHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7CC153-A7D1-41A3-B7C9-BFFBA3AF9986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B8AE38-4D68-4301-99E4-F9909F93D226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -181,6 +181,54 @@
   </si>
   <si>
     <t>SA_OSHCU_Sinet_URL</t>
+  </si>
+  <si>
+    <t>ErrorEmailAddress</t>
+  </si>
+  <si>
+    <t>Email address for error emails</t>
+  </si>
+  <si>
+    <t>UQ_SMTP_PORT</t>
+  </si>
+  <si>
+    <t>SMTP Server Port</t>
+  </si>
+  <si>
+    <t>UQ_SMTP_SERVER</t>
+  </si>
+  <si>
+    <t>SMTP Server Address</t>
+  </si>
+  <si>
+    <t>InputFileName</t>
+  </si>
+  <si>
+    <t>Input file of class adds and drops</t>
+  </si>
+  <si>
+    <t>InputFileSheetName</t>
+  </si>
+  <si>
+    <t>Input file sheet name</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>Input file sheet path</t>
+  </si>
+  <si>
+    <t>SA_OSHCU_ErrorEmailAddress</t>
+  </si>
+  <si>
+    <t>SA_OSHCU_InputFileName</t>
+  </si>
+  <si>
+    <t>SA_OSHCU_InputFileSheetName</t>
+  </si>
+  <si>
+    <t>SA_OSHCU_InputFilePath</t>
   </si>
 </sst>
 </file>
@@ -2831,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2887,13 +2935,71 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3884,9 +3990,6 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
